--- a/pred_ohlcv/54_21/2019-10-26 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 VALOR ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>36440.43399600001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>35597.43399600001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35704.696496</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36557.16729600001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42419.40599600001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>42589.57359600002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>58703.96649600002</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>50681.7316323458</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>49157.3206323458</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>49450.1112323458</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>153325.7994763079</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>139509.0426763079</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>137141.4688763079</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>139541.6316763079</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>252813.5206914882</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>251234.6028914882</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>251310.2651914882</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>249303.9199914882</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>243181.8888914882</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>241820.0617914882</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>242620.0563914882</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>246865.4882693363</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>246865.4882693363</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>245202.4469693363</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>244931.2235693363</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>247158.9915693363</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>247158.9915693363</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 VALOR ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>35597.43399600001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>35704.696496</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>36557.16729600001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42419.40599600001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>43337.63339600001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>42590.67569600001</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>42589.57359600002</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>58703.96649600002</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>50680.7316323458</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>50681.7316323458</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>47610.1790323458</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>46181.1605323458</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>49157.3206323458</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>49450.1112323458</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>153325.7994763079</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>154826.0003763079</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>154884.0642763079</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>139509.0426763079</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>137141.4688763079</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>139541.6316763079</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>246276.1876159321</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>245229.8823159321</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>239741.97157317</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>248739.2732914882</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>256093.6031914882</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>256458.0860914882</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>256309.0386914882</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>258196.6578914882</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>257223.3169914882</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>257782.2078914882</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>258930.7392914882</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>254435.1969914882</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>252831.1619914882</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>252813.5206914882</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>251234.6028914882</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>251310.2651914882</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>249303.9199914882</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
